--- a/biology/Botanique/Langage_des_fleurs/Langage_des_fleurs.xlsx
+++ b/biology/Botanique/Langage_des_fleurs/Langage_des_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le don de fleurs existe dans la plupart des civilisations qu'il constitue un cadeau ou un acte religieux. Dans certaines cultures, on accorde au langage des fleurs une symbolique particulière en donnant à chacune une signification. Ainsi, la composition d'un bouquet peut être guidée par des questions de couleurs et de parfums ou par le sens prêté à chaque fleur. 
 Les significations des fleurs ont évolué au cours du temps et ne sont pas les mêmes selon les cultures et les individus. Elles relèvent de codifications culturelles variées.
